--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H2">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I2">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J2">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>82.353359479971</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N2">
-        <v>82.353359479971</v>
+        <v>0.047147</v>
       </c>
       <c r="O2">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P2">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q2">
-        <v>825.5767609007145</v>
+        <v>0.277261841865</v>
       </c>
       <c r="R2">
-        <v>825.5767609007145</v>
+        <v>2.495356576785</v>
       </c>
       <c r="S2">
-        <v>0.006982620287550825</v>
+        <v>1.915227291154163E-06</v>
       </c>
       <c r="T2">
-        <v>0.006982620287550825</v>
+        <v>1.915227291154164E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H3">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I3">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J3">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>75.7452174093864</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N3">
-        <v>75.7452174093864</v>
+        <v>364.71218</v>
       </c>
       <c r="O3">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P3">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q3">
-        <v>759.3313938549195</v>
+        <v>2144.7975645831</v>
       </c>
       <c r="R3">
-        <v>759.3313938549195</v>
+        <v>19303.1780812479</v>
       </c>
       <c r="S3">
-        <v>0.006422325635621</v>
+        <v>0.01481550725501791</v>
       </c>
       <c r="T3">
-        <v>0.006422325635621</v>
+        <v>0.01481550725501792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H4">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I4">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J4">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>156.460867215624</v>
+        <v>80.471891</v>
       </c>
       <c r="N4">
-        <v>156.460867215624</v>
+        <v>241.415673</v>
       </c>
       <c r="O4">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P4">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q4">
-        <v>1568.490426853891</v>
+        <v>1419.716082700035</v>
       </c>
       <c r="R4">
-        <v>1568.490426853891</v>
+        <v>12777.44474430032</v>
       </c>
       <c r="S4">
-        <v>0.01326608692743516</v>
+        <v>0.009806899387913317</v>
       </c>
       <c r="T4">
-        <v>0.01326608692743516</v>
+        <v>0.009806899387913319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.7272453100143</v>
+        <v>17.642385</v>
       </c>
       <c r="H5">
-        <v>18.7272453100143</v>
+        <v>52.927155</v>
       </c>
       <c r="I5">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J5">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.353359479971</v>
+        <v>159.017985</v>
       </c>
       <c r="N5">
-        <v>82.353359479971</v>
+        <v>477.053955</v>
       </c>
       <c r="O5">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P5">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q5">
-        <v>1542.251565085209</v>
+        <v>2805.456513294225</v>
       </c>
       <c r="R5">
-        <v>1542.251565085209</v>
+        <v>25249.10861964802</v>
       </c>
       <c r="S5">
-        <v>0.01304416206570777</v>
+        <v>0.01937910692025007</v>
       </c>
       <c r="T5">
-        <v>0.01304416206570777</v>
+        <v>0.01937910692025007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.7272453100143</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H6">
-        <v>18.7272453100143</v>
+        <v>56.364044</v>
       </c>
       <c r="I6">
-        <v>0.04982388568133937</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J6">
-        <v>0.04982388568133937</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>75.7452174093864</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N6">
-        <v>75.7452174093864</v>
+        <v>0.047147</v>
       </c>
       <c r="O6">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P6">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q6">
-        <v>1418.499267485945</v>
+        <v>0.2952661758297778</v>
       </c>
       <c r="R6">
-        <v>1418.499267485945</v>
+        <v>2.657395582468</v>
       </c>
       <c r="S6">
-        <v>0.01199748131502277</v>
+        <v>2.039594898093692E-06</v>
       </c>
       <c r="T6">
-        <v>0.01199748131502277</v>
+        <v>2.039594898093693E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.7272453100143</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H7">
-        <v>18.7272453100143</v>
+        <v>56.364044</v>
       </c>
       <c r="I7">
-        <v>0.04982388568133937</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J7">
-        <v>0.04982388568133937</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>156.460867215624</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N7">
-        <v>156.460867215624</v>
+        <v>364.71218</v>
       </c>
       <c r="O7">
-        <v>0.4973968200535305</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P7">
-        <v>0.4973968200535305</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q7">
-        <v>2930.081041764565</v>
+        <v>2284.072595650658</v>
       </c>
       <c r="R7">
-        <v>2930.081041764565</v>
+        <v>20556.65336085592</v>
       </c>
       <c r="S7">
-        <v>0.02478224230060883</v>
+        <v>0.01577757018687569</v>
       </c>
       <c r="T7">
-        <v>0.02478224230060883</v>
+        <v>0.0157775701868757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H8">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I8">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J8">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.353359479971</v>
+        <v>80.471891</v>
       </c>
       <c r="N8">
-        <v>82.353359479971</v>
+        <v>241.415673</v>
       </c>
       <c r="O8">
-        <v>0.2618053948890064</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P8">
-        <v>0.2618053948890064</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q8">
-        <v>3300.021433369261</v>
+        <v>1511.907068362401</v>
       </c>
       <c r="R8">
-        <v>3300.021433369261</v>
+        <v>13607.16361526161</v>
       </c>
       <c r="S8">
-        <v>0.02791114975772426</v>
+        <v>0.01044372229347901</v>
       </c>
       <c r="T8">
-        <v>0.02791114975772426</v>
+        <v>0.01044372229347902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H9">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I9">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J9">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.7452174093864</v>
+        <v>159.017985</v>
       </c>
       <c r="N9">
-        <v>75.7452174093864</v>
+        <v>477.053955</v>
       </c>
       <c r="O9">
-        <v>0.2407977850574632</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P9">
-        <v>0.2407977850574632</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q9">
-        <v>3035.223365562665</v>
+        <v>2987.632234443779</v>
       </c>
       <c r="R9">
-        <v>3035.223365562665</v>
+        <v>26888.69010999402</v>
       </c>
       <c r="S9">
-        <v>0.02567152232640784</v>
+        <v>0.02063751273110522</v>
       </c>
       <c r="T9">
-        <v>0.02567152232640784</v>
+        <v>0.02063751273110522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.0714852946813</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H10">
-        <v>40.0714852946813</v>
+        <v>134.465311</v>
       </c>
       <c r="I10">
-        <v>0.1066102926166106</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J10">
-        <v>0.1066102926166106</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>156.460867215624</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N10">
-        <v>156.460867215624</v>
+        <v>0.047147</v>
       </c>
       <c r="O10">
-        <v>0.4973968200535305</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P10">
-        <v>0.4973968200535305</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q10">
-        <v>6269.619339823961</v>
+        <v>0.7044040019685555</v>
       </c>
       <c r="R10">
-        <v>6269.619339823961</v>
+        <v>6.339636017717</v>
       </c>
       <c r="S10">
-        <v>0.05302762053247849</v>
+        <v>4.865775108084536E-06</v>
       </c>
       <c r="T10">
-        <v>0.05302762053247849</v>
+        <v>4.865775108084538E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.2023791341376</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H11">
-        <v>51.2023791341376</v>
+        <v>134.465311</v>
       </c>
       <c r="I11">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J11">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.353359479971</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N11">
-        <v>82.353359479971</v>
+        <v>364.71218</v>
       </c>
       <c r="O11">
-        <v>0.2618053948890064</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P11">
-        <v>0.2618053948890064</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q11">
-        <v>4216.687935063401</v>
+        <v>5449.015189909775</v>
       </c>
       <c r="R11">
-        <v>4216.687935063401</v>
+        <v>49041.13670918797</v>
       </c>
       <c r="S11">
-        <v>0.03566419516159981</v>
+        <v>0.03763988052387738</v>
       </c>
       <c r="T11">
-        <v>0.03566419516159981</v>
+        <v>0.03763988052387739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.2023791341376</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H12">
-        <v>51.2023791341376</v>
+        <v>134.465311</v>
       </c>
       <c r="I12">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J12">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>75.7452174093864</v>
+        <v>80.471891</v>
       </c>
       <c r="N12">
-        <v>75.7452174093864</v>
+        <v>241.415673</v>
       </c>
       <c r="O12">
-        <v>0.2407977850574632</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P12">
-        <v>0.2407977850574632</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q12">
-        <v>3878.335339393082</v>
+        <v>3606.892616691033</v>
       </c>
       <c r="R12">
-        <v>3878.335339393082</v>
+        <v>32462.0335502193</v>
       </c>
       <c r="S12">
-        <v>0.03280245315193443</v>
+        <v>0.02491514565900007</v>
       </c>
       <c r="T12">
-        <v>0.03280245315193443</v>
+        <v>0.02491514565900007</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.2023791341376</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H13">
-        <v>51.2023791341376</v>
+        <v>134.465311</v>
       </c>
       <c r="I13">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J13">
-        <v>0.136224065117985</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>156.460867215624</v>
+        <v>159.017985</v>
       </c>
       <c r="N13">
-        <v>156.460867215624</v>
+        <v>477.053955</v>
       </c>
       <c r="O13">
-        <v>0.4973968200535305</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P13">
-        <v>0.4973968200535305</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q13">
-        <v>8011.16864283034</v>
+        <v>7127.467602539443</v>
       </c>
       <c r="R13">
-        <v>8011.16864283034</v>
+        <v>64147.20842285499</v>
       </c>
       <c r="S13">
-        <v>0.06775741680445083</v>
+        <v>0.04923403948188178</v>
       </c>
       <c r="T13">
-        <v>0.06775741680445083</v>
+        <v>0.04923403948188179</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>254.357849436458</v>
+        <v>51.213492</v>
       </c>
       <c r="H14">
-        <v>254.357849436458</v>
+        <v>153.640476</v>
       </c>
       <c r="I14">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="J14">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>82.353359479971</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N14">
-        <v>82.353359479971</v>
+        <v>0.047147</v>
       </c>
       <c r="O14">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P14">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q14">
-        <v>20947.22341119296</v>
+        <v>0.804854169108</v>
       </c>
       <c r="R14">
-        <v>20947.22341119296</v>
+        <v>7.243687521972</v>
       </c>
       <c r="S14">
-        <v>0.177168876458292</v>
+        <v>5.559649534555867E-06</v>
       </c>
       <c r="T14">
-        <v>0.177168876458292</v>
+        <v>5.559649534555868E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>254.357849436458</v>
+        <v>51.213492</v>
       </c>
       <c r="H15">
-        <v>254.357849436458</v>
+        <v>153.640476</v>
       </c>
       <c r="I15">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="J15">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>75.7452174093864</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N15">
-        <v>75.7452174093864</v>
+        <v>364.71218</v>
       </c>
       <c r="O15">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P15">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q15">
-        <v>19266.39060534848</v>
+        <v>6226.061437577519</v>
       </c>
       <c r="R15">
-        <v>19266.39060534848</v>
+        <v>56034.55293819768</v>
       </c>
       <c r="S15">
-        <v>0.1629526123797515</v>
+        <v>0.04300744271711573</v>
       </c>
       <c r="T15">
-        <v>0.1629526123797515</v>
+        <v>0.04300744271711574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>254.357849436458</v>
+        <v>51.213492</v>
       </c>
       <c r="H16">
-        <v>254.357849436458</v>
+        <v>153.640476</v>
       </c>
       <c r="I16">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="J16">
-        <v>0.6767197312087613</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>156.460867215624</v>
+        <v>80.471891</v>
       </c>
       <c r="N16">
-        <v>156.460867215624</v>
+        <v>241.415673</v>
       </c>
       <c r="O16">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P16">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q16">
-        <v>39797.04970592934</v>
+        <v>4121.246545953372</v>
       </c>
       <c r="R16">
-        <v>39797.04970592934</v>
+        <v>37091.21891358035</v>
       </c>
       <c r="S16">
-        <v>0.3365982423707178</v>
+        <v>0.02846812170507013</v>
       </c>
       <c r="T16">
-        <v>0.3365982423707178</v>
+        <v>0.02846812170507013</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.48505491324496</v>
+        <v>51.213492</v>
       </c>
       <c r="H17">
-        <v>1.48505491324496</v>
+        <v>153.640476</v>
       </c>
       <c r="I17">
-        <v>0.003950992524696721</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="J17">
-        <v>0.003950992524696721</v>
+        <v>0.1277360883085496</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>82.353359479971</v>
+        <v>159.017985</v>
       </c>
       <c r="N17">
-        <v>82.353359479971</v>
+        <v>477.053955</v>
       </c>
       <c r="O17">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P17">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q17">
-        <v>122.2992611179593</v>
+        <v>8143.86630265362</v>
       </c>
       <c r="R17">
-        <v>122.2992611179593</v>
+        <v>73294.79672388258</v>
       </c>
       <c r="S17">
-        <v>0.001034391158131738</v>
+        <v>0.05625496423682917</v>
       </c>
       <c r="T17">
-        <v>0.001034391158131738</v>
+        <v>0.05625496423682919</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.48505491324496</v>
+        <v>266.7063343333334</v>
       </c>
       <c r="H18">
-        <v>1.48505491324496</v>
+        <v>800.119003</v>
       </c>
       <c r="I18">
-        <v>0.003950992524696721</v>
+        <v>0.6652157965493198</v>
       </c>
       <c r="J18">
-        <v>0.003950992524696721</v>
+        <v>0.6652157965493199</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>75.7452174093864</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N18">
-        <v>75.7452174093864</v>
+        <v>0.047147</v>
       </c>
       <c r="O18">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P18">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q18">
-        <v>112.485807268617</v>
+        <v>4.191467848271222</v>
       </c>
       <c r="R18">
-        <v>112.485807268617</v>
+        <v>37.723210634441</v>
       </c>
       <c r="S18">
-        <v>0.0009513902487255649</v>
+        <v>2.895318576478671E-05</v>
       </c>
       <c r="T18">
-        <v>0.0009513902487255649</v>
+        <v>2.895318576478672E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H19">
+        <v>800.119003</v>
+      </c>
+      <c r="I19">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J19">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N19">
+        <v>364.71218</v>
+      </c>
+      <c r="O19">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P19">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q19">
+        <v>32423.68287150628</v>
+      </c>
+      <c r="R19">
+        <v>291813.1458435566</v>
+      </c>
+      <c r="S19">
+        <v>0.22397139793031</v>
+      </c>
+      <c r="T19">
+        <v>0.2239713979303101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H20">
+        <v>800.119003</v>
+      </c>
+      <c r="I20">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J20">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>80.471891</v>
+      </c>
+      <c r="N20">
+        <v>241.415673</v>
+      </c>
+      <c r="O20">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P20">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q20">
+        <v>21462.36306548156</v>
+      </c>
+      <c r="R20">
+        <v>193161.267589334</v>
+      </c>
+      <c r="S20">
+        <v>0.1482544557850977</v>
+      </c>
+      <c r="T20">
+        <v>0.1482544557850977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H21">
+        <v>800.119003</v>
+      </c>
+      <c r="I21">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J21">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>159.017985</v>
+      </c>
+      <c r="N21">
+        <v>477.053955</v>
+      </c>
+      <c r="O21">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P21">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q21">
+        <v>42411.10387242299</v>
+      </c>
+      <c r="R21">
+        <v>381699.9348518068</v>
+      </c>
+      <c r="S21">
+        <v>0.2929609896481472</v>
+      </c>
+      <c r="T21">
+        <v>0.2929609896481473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H22">
+        <v>5.280167</v>
+      </c>
+      <c r="I22">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J22">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.047147</v>
+      </c>
+      <c r="O22">
+        <v>4.352450124452221E-05</v>
+      </c>
+      <c r="P22">
+        <v>4.352450124452222E-05</v>
+      </c>
+      <c r="Q22">
+        <v>0.02766044817211111</v>
+      </c>
+      <c r="R22">
+        <v>0.248944033549</v>
+      </c>
+      <c r="S22">
+        <v>1.910686478472459E-07</v>
+      </c>
+      <c r="T22">
+        <v>1.91068647847246E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H23">
+        <v>5.280167</v>
+      </c>
+      <c r="I23">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J23">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N23">
+        <v>364.71218</v>
+      </c>
+      <c r="O23">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P23">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q23">
+        <v>213.9712463704511</v>
+      </c>
+      <c r="R23">
+        <v>1925.74121733406</v>
+      </c>
+      <c r="S23">
+        <v>0.001478038116656868</v>
+      </c>
+      <c r="T23">
+        <v>0.001478038116656869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H24">
+        <v>5.280167</v>
+      </c>
+      <c r="I24">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J24">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>80.471891</v>
+      </c>
+      <c r="N24">
+        <v>241.415673</v>
+      </c>
+      <c r="O24">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P24">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q24">
+        <v>141.6350077619323</v>
+      </c>
+      <c r="R24">
+        <v>1274.715069857391</v>
+      </c>
+      <c r="S24">
+        <v>0.0009783648208633183</v>
+      </c>
+      <c r="T24">
+        <v>0.0009783648208633187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.48505491324496</v>
-      </c>
-      <c r="H19">
-        <v>1.48505491324496</v>
-      </c>
-      <c r="I19">
-        <v>0.003950992524696721</v>
-      </c>
-      <c r="J19">
-        <v>0.003950992524696721</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>156.460867215624</v>
-      </c>
-      <c r="N19">
-        <v>156.460867215624</v>
-      </c>
-      <c r="O19">
-        <v>0.4973968200535305</v>
-      </c>
-      <c r="P19">
-        <v>0.4973968200535305</v>
-      </c>
-      <c r="Q19">
-        <v>232.3529795891297</v>
-      </c>
-      <c r="R19">
-        <v>232.3529795891297</v>
-      </c>
-      <c r="S19">
-        <v>0.001965211117839419</v>
-      </c>
-      <c r="T19">
-        <v>0.001965211117839419</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H25">
+        <v>5.280167</v>
+      </c>
+      <c r="I25">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J25">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>159.017985</v>
+      </c>
+      <c r="N25">
+        <v>477.053955</v>
+      </c>
+      <c r="O25">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P25">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q25">
+        <v>279.8805056011649</v>
+      </c>
+      <c r="R25">
+        <v>2518.924550410485</v>
+      </c>
+      <c r="S25">
+        <v>0.001933316099264659</v>
+      </c>
+      <c r="T25">
+        <v>0.00193331609926466</v>
       </c>
     </row>
   </sheetData>
